--- a/Week6/dictionary/sal2021_nis.xlsx
+++ b/Week6/dictionary/sal2021_nis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F1F20-08A7-9544-AA54-1439B04E9A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="17055" windowHeight="10830"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="22540" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
@@ -515,9 +516,6 @@
     <t>Production, Transportation, and Material Moving Occupations  - An occupational category based on the following two major groups in the 2018 Standard Occupational Classification (SOC) Manual:  1) Production Occupations (https://www.bls.gov/soc/2018/major_groups.htm#51-0000) and 2) Transportation and Material Moving Occupations (https://www.bls.gov/soc/2018/major_groups.htm#53-0000).</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>This variable includes the following four SOC categories    Archivists, Curators, and Museum Technicians - An occupational category based on the broad occupation in the 2018 Standard Occupational Classification (SOC) Manual called "Archivists, Curators, and Museum Technicians" (SOC code 25-4010).  For detailed information, refer to the following website: https://www.bls.gov/soc/2018/major_groups.htm#25-0000.    Librarians -  An occupational category based on the broad occupation in the 2018 Standard Occupational Classification (SOC) Manual called "Librarians and Media Collections Specialists" (SOC code 25-4020).  For detailed information, refer to the following website: https://www.bls.gov/soc/2018/major_groups.htm#25-0000.    Library Technicians  An occupational category based on the broad occupation in the 2018 Standard Occupational Classification (SOC) Manual called "Library Technicians" (SOC code 25-4030).  For detailed information, refer to the following website: https://www.bls.gov/soc/2018/major_groups.htm#25-0000.      Academic Affairs and Other Education Services Occupations  - An occupational category based on the following three minor groups in the 2018 Standard Occupational Classification (SOC) Manual:  1) Pre-school, Primary, Secondary, and Special Education School Teachers (SOC code 25-2000) (https://www.bls.gov/soc/2018/major_groups.htm#25-0000); 2) Other Teachers and Instructors (SOC code 25-3000) (https://www.bls.gov/soc/2018/major_groups.htm#25-0000); and 3) Other Education Instruction and Library Occupations (SOC code 25-9000) (https://www.bls.gov/soc/2018/major_groups.htm#25-0000).</t>
   </si>
   <si>
@@ -528,16 +526,19 @@
   </si>
   <si>
     <t xml:space="preserve">Provisional release data have undergone all NCES data quality control procedures. Data are imputed for nonresponding institutions. These data are used for First Look (Provisional Data) Web Tables. Final release data include revisions to the provisional release data that have been made by institutions during the subsequent data collection year. The final release data can be used when the most up to date data are required; however, these data may not match First Look Web Tables based on provisional data. </t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -601,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -620,15 +621,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -659,9 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -677,7 +671,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,9 +687,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,9 +727,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,7 +764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,7 +799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -978,52 +972,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.19921875" style="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" customFormat="1">
+      <c r="A2" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" customFormat="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1035,58 +1029,58 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="88.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1097,21 +1091,21 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1122,69 +1116,69 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="63.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1204,49 +1198,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1263,13 +1257,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>40606</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>40611</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>40616</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>40621</v>
       </c>
@@ -1361,7 +1355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>40626</v>
       </c>
@@ -1384,7 +1378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>40631</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>40636</v>
       </c>
@@ -1430,7 +1424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>40641</v>
       </c>
@@ -1453,7 +1447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>40646</v>
       </c>
@@ -1476,7 +1470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>40651</v>
       </c>
@@ -1499,7 +1493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>40656</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>40661</v>
       </c>
@@ -1545,7 +1539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>40666</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>40671</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>40676</v>
       </c>
@@ -1614,7 +1608,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>40681</v>
       </c>
@@ -1637,7 +1631,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>40686</v>
       </c>
@@ -1660,7 +1654,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>40691</v>
       </c>
@@ -1683,7 +1677,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>40696</v>
       </c>
@@ -1706,7 +1700,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>40701</v>
       </c>
@@ -1729,7 +1723,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>40706</v>
       </c>
@@ -1752,7 +1746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>40711</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>40716</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>40721</v>
       </c>
@@ -1821,7 +1815,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>40726</v>
       </c>
@@ -1844,7 +1838,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>40731</v>
       </c>
@@ -1867,7 +1861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>40736</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>40741</v>
       </c>
@@ -1913,7 +1907,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1922,7 +1916,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1931,7 +1925,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1940,7 +1934,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1949,7 +1943,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1958,7 +1952,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1967,7 +1961,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1976,7 +1970,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1985,7 +1979,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1994,7 +1988,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2003,7 +1997,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2012,7 +2006,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2020,7 +2014,7 @@
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2029,7 +2023,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2038,7 +2032,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2047,7 +2041,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2055,7 +2049,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2064,7 +2058,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2072,7 +2066,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2081,7 +2075,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2090,7 +2084,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2099,7 +2093,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2107,7 +2101,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2116,7 +2110,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2124,7 +2118,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2133,7 +2127,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2142,7 +2136,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2151,7 +2145,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2159,7 +2153,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2168,7 +2162,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2176,7 +2170,7 @@
       <c r="E60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2185,7 +2179,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2194,7 +2188,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2203,7 +2197,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2212,7 +2206,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2221,7 +2215,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2230,7 +2224,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2239,7 +2233,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2248,7 +2242,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2257,7 +2251,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2266,7 +2260,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2275,7 +2269,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2284,7 +2278,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2293,7 +2287,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2302,7 +2296,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2311,7 +2305,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2320,7 +2314,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2329,7 +2323,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2338,7 +2332,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2347,7 +2341,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2356,7 +2350,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2365,7 +2359,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2374,7 +2368,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2383,7 +2377,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2392,7 +2386,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2401,7 +2395,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2410,7 +2404,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2419,7 +2413,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2428,7 +2422,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2437,7 +2431,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2446,7 +2440,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2455,7 +2449,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2464,7 +2458,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2473,7 +2467,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2482,7 +2476,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2491,7 +2485,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2500,7 +2494,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2509,7 +2503,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2518,7 +2512,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2527,7 +2521,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2536,7 +2530,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2545,16 +2539,16 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="23"/>
+      <c r="F102" s="21"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2562,7 +2556,7 @@
       <c r="E103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2570,7 +2564,7 @@
       <c r="E104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2579,7 +2573,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2588,7 +2582,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2597,7 +2591,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2606,7 +2600,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2615,7 +2609,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2624,7 +2618,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2633,7 +2627,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2642,7 +2636,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2650,16 +2644,16 @@
       <c r="E113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="23"/>
+      <c r="F114" s="21"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2667,7 +2661,7 @@
       <c r="E115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2675,7 +2669,7 @@
       <c r="E116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2683,7 +2677,7 @@
       <c r="E117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2691,16 +2685,16 @@
       <c r="E118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="23"/>
+      <c r="F119" s="21"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2708,7 +2702,7 @@
       <c r="E120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2716,7 +2710,7 @@
       <c r="E121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2724,7 +2718,7 @@
       <c r="E122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2732,7 +2726,7 @@
       <c r="E123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2740,7 +2734,7 @@
       <c r="E124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2748,7 +2742,7 @@
       <c r="E125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2756,16 +2750,16 @@
       <c r="E126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="23"/>
+      <c r="F127" s="21"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2774,7 +2768,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2783,7 +2777,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2792,7 +2786,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2801,7 +2795,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2810,7 +2804,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2818,16 +2812,16 @@
       <c r="E133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="23"/>
+      <c r="F134" s="21"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2836,7 +2830,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2845,7 +2839,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2854,7 +2848,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2870,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,2008 +2872,836 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15"/>
-    <col min="2" max="2" width="11.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="144.85546875" style="15" customWidth="1"/>
-    <col min="4" max="257" width="8.7109375" style="16"/>
-    <col min="258" max="258" width="11.140625" style="16" customWidth="1"/>
-    <col min="259" max="259" width="144.85546875" style="16" customWidth="1"/>
-    <col min="260" max="513" width="8.7109375" style="16"/>
-    <col min="514" max="514" width="11.140625" style="16" customWidth="1"/>
-    <col min="515" max="515" width="144.85546875" style="16" customWidth="1"/>
-    <col min="516" max="769" width="8.7109375" style="16"/>
-    <col min="770" max="770" width="11.140625" style="16" customWidth="1"/>
-    <col min="771" max="771" width="144.85546875" style="16" customWidth="1"/>
-    <col min="772" max="1025" width="8.7109375" style="16"/>
-    <col min="1026" max="1026" width="11.140625" style="16" customWidth="1"/>
-    <col min="1027" max="1027" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1028" max="1281" width="8.7109375" style="16"/>
-    <col min="1282" max="1282" width="11.140625" style="16" customWidth="1"/>
-    <col min="1283" max="1283" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1284" max="1537" width="8.7109375" style="16"/>
-    <col min="1538" max="1538" width="11.140625" style="16" customWidth="1"/>
-    <col min="1539" max="1539" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1540" max="1793" width="8.7109375" style="16"/>
-    <col min="1794" max="1794" width="11.140625" style="16" customWidth="1"/>
-    <col min="1795" max="1795" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1796" max="2049" width="8.7109375" style="16"/>
-    <col min="2050" max="2050" width="11.140625" style="16" customWidth="1"/>
-    <col min="2051" max="2051" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2052" max="2305" width="8.7109375" style="16"/>
-    <col min="2306" max="2306" width="11.140625" style="16" customWidth="1"/>
-    <col min="2307" max="2307" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2308" max="2561" width="8.7109375" style="16"/>
-    <col min="2562" max="2562" width="11.140625" style="16" customWidth="1"/>
-    <col min="2563" max="2563" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2564" max="2817" width="8.7109375" style="16"/>
-    <col min="2818" max="2818" width="11.140625" style="16" customWidth="1"/>
-    <col min="2819" max="2819" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2820" max="3073" width="8.7109375" style="16"/>
-    <col min="3074" max="3074" width="11.140625" style="16" customWidth="1"/>
-    <col min="3075" max="3075" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3076" max="3329" width="8.7109375" style="16"/>
-    <col min="3330" max="3330" width="11.140625" style="16" customWidth="1"/>
-    <col min="3331" max="3331" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3332" max="3585" width="8.7109375" style="16"/>
-    <col min="3586" max="3586" width="11.140625" style="16" customWidth="1"/>
-    <col min="3587" max="3587" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3588" max="3841" width="8.7109375" style="16"/>
-    <col min="3842" max="3842" width="11.140625" style="16" customWidth="1"/>
-    <col min="3843" max="3843" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3844" max="4097" width="8.7109375" style="16"/>
-    <col min="4098" max="4098" width="11.140625" style="16" customWidth="1"/>
-    <col min="4099" max="4099" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4100" max="4353" width="8.7109375" style="16"/>
-    <col min="4354" max="4354" width="11.140625" style="16" customWidth="1"/>
-    <col min="4355" max="4355" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4356" max="4609" width="8.7109375" style="16"/>
-    <col min="4610" max="4610" width="11.140625" style="16" customWidth="1"/>
-    <col min="4611" max="4611" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4612" max="4865" width="8.7109375" style="16"/>
-    <col min="4866" max="4866" width="11.140625" style="16" customWidth="1"/>
-    <col min="4867" max="4867" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4868" max="5121" width="8.7109375" style="16"/>
-    <col min="5122" max="5122" width="11.140625" style="16" customWidth="1"/>
-    <col min="5123" max="5123" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5124" max="5377" width="8.7109375" style="16"/>
-    <col min="5378" max="5378" width="11.140625" style="16" customWidth="1"/>
-    <col min="5379" max="5379" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5380" max="5633" width="8.7109375" style="16"/>
-    <col min="5634" max="5634" width="11.140625" style="16" customWidth="1"/>
-    <col min="5635" max="5635" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5636" max="5889" width="8.7109375" style="16"/>
-    <col min="5890" max="5890" width="11.140625" style="16" customWidth="1"/>
-    <col min="5891" max="5891" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5892" max="6145" width="8.7109375" style="16"/>
-    <col min="6146" max="6146" width="11.140625" style="16" customWidth="1"/>
-    <col min="6147" max="6147" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6148" max="6401" width="8.7109375" style="16"/>
-    <col min="6402" max="6402" width="11.140625" style="16" customWidth="1"/>
-    <col min="6403" max="6403" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6404" max="6657" width="8.7109375" style="16"/>
-    <col min="6658" max="6658" width="11.140625" style="16" customWidth="1"/>
-    <col min="6659" max="6659" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6660" max="6913" width="8.7109375" style="16"/>
-    <col min="6914" max="6914" width="11.140625" style="16" customWidth="1"/>
-    <col min="6915" max="6915" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6916" max="7169" width="8.7109375" style="16"/>
-    <col min="7170" max="7170" width="11.140625" style="16" customWidth="1"/>
-    <col min="7171" max="7171" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7172" max="7425" width="8.7109375" style="16"/>
-    <col min="7426" max="7426" width="11.140625" style="16" customWidth="1"/>
-    <col min="7427" max="7427" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7428" max="7681" width="8.7109375" style="16"/>
-    <col min="7682" max="7682" width="11.140625" style="16" customWidth="1"/>
-    <col min="7683" max="7683" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7684" max="7937" width="8.7109375" style="16"/>
-    <col min="7938" max="7938" width="11.140625" style="16" customWidth="1"/>
-    <col min="7939" max="7939" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7940" max="8193" width="8.7109375" style="16"/>
-    <col min="8194" max="8194" width="11.140625" style="16" customWidth="1"/>
-    <col min="8195" max="8195" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8196" max="8449" width="8.7109375" style="16"/>
-    <col min="8450" max="8450" width="11.140625" style="16" customWidth="1"/>
-    <col min="8451" max="8451" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8452" max="8705" width="8.7109375" style="16"/>
-    <col min="8706" max="8706" width="11.140625" style="16" customWidth="1"/>
-    <col min="8707" max="8707" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8708" max="8961" width="8.7109375" style="16"/>
-    <col min="8962" max="8962" width="11.140625" style="16" customWidth="1"/>
-    <col min="8963" max="8963" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8964" max="9217" width="8.7109375" style="16"/>
-    <col min="9218" max="9218" width="11.140625" style="16" customWidth="1"/>
-    <col min="9219" max="9219" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9220" max="9473" width="8.7109375" style="16"/>
-    <col min="9474" max="9474" width="11.140625" style="16" customWidth="1"/>
-    <col min="9475" max="9475" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9476" max="9729" width="8.7109375" style="16"/>
-    <col min="9730" max="9730" width="11.140625" style="16" customWidth="1"/>
-    <col min="9731" max="9731" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9732" max="9985" width="8.7109375" style="16"/>
-    <col min="9986" max="9986" width="11.140625" style="16" customWidth="1"/>
-    <col min="9987" max="9987" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9988" max="10241" width="8.7109375" style="16"/>
-    <col min="10242" max="10242" width="11.140625" style="16" customWidth="1"/>
-    <col min="10243" max="10243" width="144.85546875" style="16" customWidth="1"/>
-    <col min="10244" max="10497" width="8.7109375" style="16"/>
-    <col min="10498" max="10498" width="11.140625" style="16" customWidth="1"/>
-    <col min="10499" max="10499" width="144.85546875" style="16" customWidth="1"/>
-    <col min="10500" max="10753" width="8.7109375" style="16"/>
-    <col min="10754" max="10754" width="11.140625" style="16" customWidth="1"/>
-    <col min="10755" max="10755" width="144.85546875" style="16" customWidth="1"/>
-    <col min="10756" max="11009" width="8.7109375" style="16"/>
-    <col min="11010" max="11010" width="11.140625" style="16" customWidth="1"/>
-    <col min="11011" max="11011" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11012" max="11265" width="8.7109375" style="16"/>
-    <col min="11266" max="11266" width="11.140625" style="16" customWidth="1"/>
-    <col min="11267" max="11267" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11268" max="11521" width="8.7109375" style="16"/>
-    <col min="11522" max="11522" width="11.140625" style="16" customWidth="1"/>
-    <col min="11523" max="11523" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11524" max="11777" width="8.7109375" style="16"/>
-    <col min="11778" max="11778" width="11.140625" style="16" customWidth="1"/>
-    <col min="11779" max="11779" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11780" max="12033" width="8.7109375" style="16"/>
-    <col min="12034" max="12034" width="11.140625" style="16" customWidth="1"/>
-    <col min="12035" max="12035" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12036" max="12289" width="8.7109375" style="16"/>
-    <col min="12290" max="12290" width="11.140625" style="16" customWidth="1"/>
-    <col min="12291" max="12291" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12292" max="12545" width="8.7109375" style="16"/>
-    <col min="12546" max="12546" width="11.140625" style="16" customWidth="1"/>
-    <col min="12547" max="12547" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12548" max="12801" width="8.7109375" style="16"/>
-    <col min="12802" max="12802" width="11.140625" style="16" customWidth="1"/>
-    <col min="12803" max="12803" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12804" max="13057" width="8.7109375" style="16"/>
-    <col min="13058" max="13058" width="11.140625" style="16" customWidth="1"/>
-    <col min="13059" max="13059" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13060" max="13313" width="8.7109375" style="16"/>
-    <col min="13314" max="13314" width="11.140625" style="16" customWidth="1"/>
-    <col min="13315" max="13315" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13316" max="13569" width="8.7109375" style="16"/>
-    <col min="13570" max="13570" width="11.140625" style="16" customWidth="1"/>
-    <col min="13571" max="13571" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13572" max="13825" width="8.7109375" style="16"/>
-    <col min="13826" max="13826" width="11.140625" style="16" customWidth="1"/>
-    <col min="13827" max="13827" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13828" max="14081" width="8.7109375" style="16"/>
-    <col min="14082" max="14082" width="11.140625" style="16" customWidth="1"/>
-    <col min="14083" max="14083" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14084" max="14337" width="8.7109375" style="16"/>
-    <col min="14338" max="14338" width="11.140625" style="16" customWidth="1"/>
-    <col min="14339" max="14339" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14340" max="14593" width="8.7109375" style="16"/>
-    <col min="14594" max="14594" width="11.140625" style="16" customWidth="1"/>
-    <col min="14595" max="14595" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14596" max="14849" width="8.7109375" style="16"/>
-    <col min="14850" max="14850" width="11.140625" style="16" customWidth="1"/>
-    <col min="14851" max="14851" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14852" max="15105" width="8.7109375" style="16"/>
-    <col min="15106" max="15106" width="11.140625" style="16" customWidth="1"/>
-    <col min="15107" max="15107" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15108" max="15361" width="8.7109375" style="16"/>
-    <col min="15362" max="15362" width="11.140625" style="16" customWidth="1"/>
-    <col min="15363" max="15363" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15364" max="15617" width="8.7109375" style="16"/>
-    <col min="15618" max="15618" width="11.140625" style="16" customWidth="1"/>
-    <col min="15619" max="15619" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15620" max="15873" width="8.7109375" style="16"/>
-    <col min="15874" max="15874" width="11.140625" style="16" customWidth="1"/>
-    <col min="15875" max="15875" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15876" max="16129" width="8.7109375" style="16"/>
-    <col min="16130" max="16130" width="11.140625" style="16" customWidth="1"/>
-    <col min="16131" max="16131" width="144.85546875" style="16" customWidth="1"/>
-    <col min="16132" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="1" width="8.796875" style="13"/>
+    <col min="2" max="2" width="11.19921875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="144.796875" style="13" customWidth="1"/>
+    <col min="4" max="257" width="8.796875" style="14"/>
+    <col min="258" max="258" width="11.19921875" style="14" customWidth="1"/>
+    <col min="259" max="259" width="144.796875" style="14" customWidth="1"/>
+    <col min="260" max="513" width="8.796875" style="14"/>
+    <col min="514" max="514" width="11.19921875" style="14" customWidth="1"/>
+    <col min="515" max="515" width="144.796875" style="14" customWidth="1"/>
+    <col min="516" max="769" width="8.796875" style="14"/>
+    <col min="770" max="770" width="11.19921875" style="14" customWidth="1"/>
+    <col min="771" max="771" width="144.796875" style="14" customWidth="1"/>
+    <col min="772" max="1025" width="8.796875" style="14"/>
+    <col min="1026" max="1026" width="11.19921875" style="14" customWidth="1"/>
+    <col min="1027" max="1027" width="144.796875" style="14" customWidth="1"/>
+    <col min="1028" max="1281" width="8.796875" style="14"/>
+    <col min="1282" max="1282" width="11.19921875" style="14" customWidth="1"/>
+    <col min="1283" max="1283" width="144.796875" style="14" customWidth="1"/>
+    <col min="1284" max="1537" width="8.796875" style="14"/>
+    <col min="1538" max="1538" width="11.19921875" style="14" customWidth="1"/>
+    <col min="1539" max="1539" width="144.796875" style="14" customWidth="1"/>
+    <col min="1540" max="1793" width="8.796875" style="14"/>
+    <col min="1794" max="1794" width="11.19921875" style="14" customWidth="1"/>
+    <col min="1795" max="1795" width="144.796875" style="14" customWidth="1"/>
+    <col min="1796" max="2049" width="8.796875" style="14"/>
+    <col min="2050" max="2050" width="11.19921875" style="14" customWidth="1"/>
+    <col min="2051" max="2051" width="144.796875" style="14" customWidth="1"/>
+    <col min="2052" max="2305" width="8.796875" style="14"/>
+    <col min="2306" max="2306" width="11.19921875" style="14" customWidth="1"/>
+    <col min="2307" max="2307" width="144.796875" style="14" customWidth="1"/>
+    <col min="2308" max="2561" width="8.796875" style="14"/>
+    <col min="2562" max="2562" width="11.19921875" style="14" customWidth="1"/>
+    <col min="2563" max="2563" width="144.796875" style="14" customWidth="1"/>
+    <col min="2564" max="2817" width="8.796875" style="14"/>
+    <col min="2818" max="2818" width="11.19921875" style="14" customWidth="1"/>
+    <col min="2819" max="2819" width="144.796875" style="14" customWidth="1"/>
+    <col min="2820" max="3073" width="8.796875" style="14"/>
+    <col min="3074" max="3074" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3075" max="3075" width="144.796875" style="14" customWidth="1"/>
+    <col min="3076" max="3329" width="8.796875" style="14"/>
+    <col min="3330" max="3330" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3331" max="3331" width="144.796875" style="14" customWidth="1"/>
+    <col min="3332" max="3585" width="8.796875" style="14"/>
+    <col min="3586" max="3586" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3587" max="3587" width="144.796875" style="14" customWidth="1"/>
+    <col min="3588" max="3841" width="8.796875" style="14"/>
+    <col min="3842" max="3842" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3843" max="3843" width="144.796875" style="14" customWidth="1"/>
+    <col min="3844" max="4097" width="8.796875" style="14"/>
+    <col min="4098" max="4098" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4099" max="4099" width="144.796875" style="14" customWidth="1"/>
+    <col min="4100" max="4353" width="8.796875" style="14"/>
+    <col min="4354" max="4354" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4355" max="4355" width="144.796875" style="14" customWidth="1"/>
+    <col min="4356" max="4609" width="8.796875" style="14"/>
+    <col min="4610" max="4610" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4611" max="4611" width="144.796875" style="14" customWidth="1"/>
+    <col min="4612" max="4865" width="8.796875" style="14"/>
+    <col min="4866" max="4866" width="11.19921875" style="14" customWidth="1"/>
+    <col min="4867" max="4867" width="144.796875" style="14" customWidth="1"/>
+    <col min="4868" max="5121" width="8.796875" style="14"/>
+    <col min="5122" max="5122" width="11.19921875" style="14" customWidth="1"/>
+    <col min="5123" max="5123" width="144.796875" style="14" customWidth="1"/>
+    <col min="5124" max="5377" width="8.796875" style="14"/>
+    <col min="5378" max="5378" width="11.19921875" style="14" customWidth="1"/>
+    <col min="5379" max="5379" width="144.796875" style="14" customWidth="1"/>
+    <col min="5380" max="5633" width="8.796875" style="14"/>
+    <col min="5634" max="5634" width="11.19921875" style="14" customWidth="1"/>
+    <col min="5635" max="5635" width="144.796875" style="14" customWidth="1"/>
+    <col min="5636" max="5889" width="8.796875" style="14"/>
+    <col min="5890" max="5890" width="11.19921875" style="14" customWidth="1"/>
+    <col min="5891" max="5891" width="144.796875" style="14" customWidth="1"/>
+    <col min="5892" max="6145" width="8.796875" style="14"/>
+    <col min="6146" max="6146" width="11.19921875" style="14" customWidth="1"/>
+    <col min="6147" max="6147" width="144.796875" style="14" customWidth="1"/>
+    <col min="6148" max="6401" width="8.796875" style="14"/>
+    <col min="6402" max="6402" width="11.19921875" style="14" customWidth="1"/>
+    <col min="6403" max="6403" width="144.796875" style="14" customWidth="1"/>
+    <col min="6404" max="6657" width="8.796875" style="14"/>
+    <col min="6658" max="6658" width="11.19921875" style="14" customWidth="1"/>
+    <col min="6659" max="6659" width="144.796875" style="14" customWidth="1"/>
+    <col min="6660" max="6913" width="8.796875" style="14"/>
+    <col min="6914" max="6914" width="11.19921875" style="14" customWidth="1"/>
+    <col min="6915" max="6915" width="144.796875" style="14" customWidth="1"/>
+    <col min="6916" max="7169" width="8.796875" style="14"/>
+    <col min="7170" max="7170" width="11.19921875" style="14" customWidth="1"/>
+    <col min="7171" max="7171" width="144.796875" style="14" customWidth="1"/>
+    <col min="7172" max="7425" width="8.796875" style="14"/>
+    <col min="7426" max="7426" width="11.19921875" style="14" customWidth="1"/>
+    <col min="7427" max="7427" width="144.796875" style="14" customWidth="1"/>
+    <col min="7428" max="7681" width="8.796875" style="14"/>
+    <col min="7682" max="7682" width="11.19921875" style="14" customWidth="1"/>
+    <col min="7683" max="7683" width="144.796875" style="14" customWidth="1"/>
+    <col min="7684" max="7937" width="8.796875" style="14"/>
+    <col min="7938" max="7938" width="11.19921875" style="14" customWidth="1"/>
+    <col min="7939" max="7939" width="144.796875" style="14" customWidth="1"/>
+    <col min="7940" max="8193" width="8.796875" style="14"/>
+    <col min="8194" max="8194" width="11.19921875" style="14" customWidth="1"/>
+    <col min="8195" max="8195" width="144.796875" style="14" customWidth="1"/>
+    <col min="8196" max="8449" width="8.796875" style="14"/>
+    <col min="8450" max="8450" width="11.19921875" style="14" customWidth="1"/>
+    <col min="8451" max="8451" width="144.796875" style="14" customWidth="1"/>
+    <col min="8452" max="8705" width="8.796875" style="14"/>
+    <col min="8706" max="8706" width="11.19921875" style="14" customWidth="1"/>
+    <col min="8707" max="8707" width="144.796875" style="14" customWidth="1"/>
+    <col min="8708" max="8961" width="8.796875" style="14"/>
+    <col min="8962" max="8962" width="11.19921875" style="14" customWidth="1"/>
+    <col min="8963" max="8963" width="144.796875" style="14" customWidth="1"/>
+    <col min="8964" max="9217" width="8.796875" style="14"/>
+    <col min="9218" max="9218" width="11.19921875" style="14" customWidth="1"/>
+    <col min="9219" max="9219" width="144.796875" style="14" customWidth="1"/>
+    <col min="9220" max="9473" width="8.796875" style="14"/>
+    <col min="9474" max="9474" width="11.19921875" style="14" customWidth="1"/>
+    <col min="9475" max="9475" width="144.796875" style="14" customWidth="1"/>
+    <col min="9476" max="9729" width="8.796875" style="14"/>
+    <col min="9730" max="9730" width="11.19921875" style="14" customWidth="1"/>
+    <col min="9731" max="9731" width="144.796875" style="14" customWidth="1"/>
+    <col min="9732" max="9985" width="8.796875" style="14"/>
+    <col min="9986" max="9986" width="11.19921875" style="14" customWidth="1"/>
+    <col min="9987" max="9987" width="144.796875" style="14" customWidth="1"/>
+    <col min="9988" max="10241" width="8.796875" style="14"/>
+    <col min="10242" max="10242" width="11.19921875" style="14" customWidth="1"/>
+    <col min="10243" max="10243" width="144.796875" style="14" customWidth="1"/>
+    <col min="10244" max="10497" width="8.796875" style="14"/>
+    <col min="10498" max="10498" width="11.19921875" style="14" customWidth="1"/>
+    <col min="10499" max="10499" width="144.796875" style="14" customWidth="1"/>
+    <col min="10500" max="10753" width="8.796875" style="14"/>
+    <col min="10754" max="10754" width="11.19921875" style="14" customWidth="1"/>
+    <col min="10755" max="10755" width="144.796875" style="14" customWidth="1"/>
+    <col min="10756" max="11009" width="8.796875" style="14"/>
+    <col min="11010" max="11010" width="11.19921875" style="14" customWidth="1"/>
+    <col min="11011" max="11011" width="144.796875" style="14" customWidth="1"/>
+    <col min="11012" max="11265" width="8.796875" style="14"/>
+    <col min="11266" max="11266" width="11.19921875" style="14" customWidth="1"/>
+    <col min="11267" max="11267" width="144.796875" style="14" customWidth="1"/>
+    <col min="11268" max="11521" width="8.796875" style="14"/>
+    <col min="11522" max="11522" width="11.19921875" style="14" customWidth="1"/>
+    <col min="11523" max="11523" width="144.796875" style="14" customWidth="1"/>
+    <col min="11524" max="11777" width="8.796875" style="14"/>
+    <col min="11778" max="11778" width="11.19921875" style="14" customWidth="1"/>
+    <col min="11779" max="11779" width="144.796875" style="14" customWidth="1"/>
+    <col min="11780" max="12033" width="8.796875" style="14"/>
+    <col min="12034" max="12034" width="11.19921875" style="14" customWidth="1"/>
+    <col min="12035" max="12035" width="144.796875" style="14" customWidth="1"/>
+    <col min="12036" max="12289" width="8.796875" style="14"/>
+    <col min="12290" max="12290" width="11.19921875" style="14" customWidth="1"/>
+    <col min="12291" max="12291" width="144.796875" style="14" customWidth="1"/>
+    <col min="12292" max="12545" width="8.796875" style="14"/>
+    <col min="12546" max="12546" width="11.19921875" style="14" customWidth="1"/>
+    <col min="12547" max="12547" width="144.796875" style="14" customWidth="1"/>
+    <col min="12548" max="12801" width="8.796875" style="14"/>
+    <col min="12802" max="12802" width="11.19921875" style="14" customWidth="1"/>
+    <col min="12803" max="12803" width="144.796875" style="14" customWidth="1"/>
+    <col min="12804" max="13057" width="8.796875" style="14"/>
+    <col min="13058" max="13058" width="11.19921875" style="14" customWidth="1"/>
+    <col min="13059" max="13059" width="144.796875" style="14" customWidth="1"/>
+    <col min="13060" max="13313" width="8.796875" style="14"/>
+    <col min="13314" max="13314" width="11.19921875" style="14" customWidth="1"/>
+    <col min="13315" max="13315" width="144.796875" style="14" customWidth="1"/>
+    <col min="13316" max="13569" width="8.796875" style="14"/>
+    <col min="13570" max="13570" width="11.19921875" style="14" customWidth="1"/>
+    <col min="13571" max="13571" width="144.796875" style="14" customWidth="1"/>
+    <col min="13572" max="13825" width="8.796875" style="14"/>
+    <col min="13826" max="13826" width="11.19921875" style="14" customWidth="1"/>
+    <col min="13827" max="13827" width="144.796875" style="14" customWidth="1"/>
+    <col min="13828" max="14081" width="8.796875" style="14"/>
+    <col min="14082" max="14082" width="11.19921875" style="14" customWidth="1"/>
+    <col min="14083" max="14083" width="144.796875" style="14" customWidth="1"/>
+    <col min="14084" max="14337" width="8.796875" style="14"/>
+    <col min="14338" max="14338" width="11.19921875" style="14" customWidth="1"/>
+    <col min="14339" max="14339" width="144.796875" style="14" customWidth="1"/>
+    <col min="14340" max="14593" width="8.796875" style="14"/>
+    <col min="14594" max="14594" width="11.19921875" style="14" customWidth="1"/>
+    <col min="14595" max="14595" width="144.796875" style="14" customWidth="1"/>
+    <col min="14596" max="14849" width="8.796875" style="14"/>
+    <col min="14850" max="14850" width="11.19921875" style="14" customWidth="1"/>
+    <col min="14851" max="14851" width="144.796875" style="14" customWidth="1"/>
+    <col min="14852" max="15105" width="8.796875" style="14"/>
+    <col min="15106" max="15106" width="11.19921875" style="14" customWidth="1"/>
+    <col min="15107" max="15107" width="144.796875" style="14" customWidth="1"/>
+    <col min="15108" max="15361" width="8.796875" style="14"/>
+    <col min="15362" max="15362" width="11.19921875" style="14" customWidth="1"/>
+    <col min="15363" max="15363" width="144.796875" style="14" customWidth="1"/>
+    <col min="15364" max="15617" width="8.796875" style="14"/>
+    <col min="15618" max="15618" width="11.19921875" style="14" customWidth="1"/>
+    <col min="15619" max="15619" width="144.796875" style="14" customWidth="1"/>
+    <col min="15620" max="15873" width="8.796875" style="14"/>
+    <col min="15874" max="15874" width="11.19921875" style="14" customWidth="1"/>
+    <col min="15875" max="15875" width="144.796875" style="14" customWidth="1"/>
+    <col min="15876" max="16129" width="8.796875" style="14"/>
+    <col min="16130" max="16130" width="11.19921875" style="14" customWidth="1"/>
+    <col min="16131" max="16131" width="144.796875" style="14" customWidth="1"/>
+    <col min="16132" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="12" customFormat="1" ht="12">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" ht="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+    <row r="3" spans="1:3" ht="72">
+      <c r="A3" s="13">
         <v>40606</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+    <row r="4" spans="1:3" ht="72">
+      <c r="A4" s="13">
         <v>40611</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" ht="24">
+      <c r="A5" s="13">
         <v>40616</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+    <row r="6" spans="1:3" ht="24">
+      <c r="A6" s="13">
         <v>40621</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:3" ht="36">
+      <c r="A7" s="13">
         <v>40626</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+    <row r="8" spans="1:3" ht="36">
+      <c r="A8" s="13">
         <v>40631</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+    <row r="9" spans="1:3" ht="108">
+      <c r="A9" s="13">
         <v>40636</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+      <c r="C9" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="108">
+      <c r="A10" s="13">
         <v>40641</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+      <c r="C10" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36">
+      <c r="A11" s="13">
         <v>40646</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:3" ht="36">
+      <c r="A12" s="13">
         <v>40651</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:3" ht="24">
+      <c r="A13" s="13">
         <v>40656</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:3" ht="24">
+      <c r="A14" s="13">
         <v>40661</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:3" ht="36">
+      <c r="A15" s="13">
         <v>40666</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:3" ht="36">
+      <c r="A16" s="13">
         <v>40671</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+    <row r="17" spans="1:3" ht="36">
+      <c r="A17" s="14">
         <v>40676</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+    <row r="18" spans="1:3" ht="36">
+      <c r="A18" s="14">
         <v>40681</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+    <row r="19" spans="1:3" ht="24">
+      <c r="A19" s="14">
         <v>40686</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+    <row r="20" spans="1:3" ht="24">
+      <c r="A20" s="14">
         <v>40691</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+    <row r="21" spans="1:3" ht="48">
+      <c r="A21" s="14">
         <v>40696</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+    <row r="22" spans="1:3" ht="48">
+      <c r="A22" s="14">
         <v>40701</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+    <row r="23" spans="1:3" ht="24">
+      <c r="A23" s="14">
         <v>40706</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+    <row r="24" spans="1:3" ht="24">
+      <c r="A24" s="14">
         <v>40711</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+    <row r="25" spans="1:3" ht="24">
+      <c r="A25" s="14">
         <v>40716</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+    <row r="26" spans="1:3" ht="24">
+      <c r="A26" s="14">
         <v>40721</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+    <row r="27" spans="1:3" ht="36">
+      <c r="A27" s="14">
         <v>40726</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+    <row r="28" spans="1:3" ht="36">
+      <c r="A28" s="14">
         <v>40731</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+    <row r="29" spans="1:3" ht="24">
+      <c r="A29" s="14">
         <v>40736</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+    <row r="30" spans="1:3" ht="24">
+      <c r="A30" s="14">
         <v>40741</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="16"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="16"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="16"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="16"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="16"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="16"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="16"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="16"/>
-      <c r="B138" s="16"/>
-      <c r="C138" s="16"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="16"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="16"/>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="16"/>
-      <c r="B141" s="16"/>
-      <c r="C141" s="16"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="16"/>
-      <c r="B142" s="16"/>
-      <c r="C142" s="16"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="16"/>
-      <c r="B143" s="16"/>
-      <c r="C143" s="16"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="16"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="16"/>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="16"/>
-      <c r="B146" s="16"/>
-      <c r="C146" s="16"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="16"/>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="16"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="16"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="16"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="16"/>
-      <c r="B151" s="16"/>
-      <c r="C151" s="16"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="16"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="16"/>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="16"/>
-      <c r="B154" s="16"/>
-      <c r="C154" s="16"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="16"/>
-      <c r="B155" s="16"/>
-      <c r="C155" s="16"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="16"/>
-      <c r="B156" s="16"/>
-      <c r="C156" s="16"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="16"/>
-      <c r="B157" s="16"/>
-      <c r="C157" s="16"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="16"/>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="16"/>
-      <c r="B159" s="16"/>
-      <c r="C159" s="16"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="16"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="16"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="16"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="16"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="16"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="16"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="16"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="16"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="16"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="16"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="16"/>
-      <c r="B165" s="16"/>
-      <c r="C165" s="16"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="16"/>
-      <c r="B166" s="16"/>
-      <c r="C166" s="16"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="16"/>
-      <c r="B167" s="16"/>
-      <c r="C167" s="16"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="16"/>
-      <c r="B168" s="16"/>
-      <c r="C168" s="16"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="16"/>
-      <c r="B169" s="16"/>
-      <c r="C169" s="16"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="16"/>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="16"/>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="16"/>
-      <c r="B172" s="16"/>
-      <c r="C172" s="16"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="16"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="16"/>
-      <c r="B174" s="16"/>
-      <c r="C174" s="16"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="16"/>
-      <c r="B175" s="16"/>
-      <c r="C175" s="16"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="16"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="16"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="16"/>
-      <c r="B177" s="16"/>
-      <c r="C177" s="16"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="16"/>
-      <c r="B178" s="16"/>
-      <c r="C178" s="16"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="16"/>
-      <c r="B179" s="16"/>
-      <c r="C179" s="16"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="16"/>
-      <c r="B180" s="16"/>
-      <c r="C180" s="16"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="16"/>
-      <c r="B181" s="16"/>
-      <c r="C181" s="16"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="16"/>
-      <c r="B182" s="16"/>
-      <c r="C182" s="16"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="16"/>
-      <c r="B183" s="16"/>
-      <c r="C183" s="16"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="16"/>
-      <c r="B184" s="16"/>
-      <c r="C184" s="16"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="16"/>
-      <c r="B185" s="16"/>
-      <c r="C185" s="16"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="16"/>
-      <c r="B186" s="16"/>
-      <c r="C186" s="16"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="16"/>
-      <c r="B187" s="16"/>
-      <c r="C187" s="16"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="16"/>
-      <c r="B188" s="16"/>
-      <c r="C188" s="16"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="16"/>
-      <c r="B189" s="16"/>
-      <c r="C189" s="16"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="16"/>
-      <c r="B190" s="16"/>
-      <c r="C190" s="16"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="16"/>
-      <c r="B191" s="16"/>
-      <c r="C191" s="16"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="16"/>
-      <c r="B192" s="16"/>
-      <c r="C192" s="16"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="16"/>
-      <c r="B193" s="16"/>
-      <c r="C193" s="16"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="16"/>
-      <c r="B194" s="16"/>
-      <c r="C194" s="16"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="16"/>
-      <c r="B195" s="16"/>
-      <c r="C195" s="16"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="16"/>
-      <c r="B196" s="16"/>
-      <c r="C196" s="16"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="16"/>
-      <c r="B197" s="16"/>
-      <c r="C197" s="16"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="16"/>
-      <c r="B198" s="16"/>
-      <c r="C198" s="16"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="16"/>
-      <c r="B199" s="16"/>
-      <c r="C199" s="16"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="16"/>
-      <c r="B200" s="16"/>
-      <c r="C200" s="16"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="16"/>
-      <c r="B201" s="16"/>
-      <c r="C201" s="16"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="16"/>
-      <c r="B202" s="16"/>
-      <c r="C202" s="16"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="16"/>
-      <c r="B203" s="16"/>
-      <c r="C203" s="16"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="16"/>
-      <c r="B204" s="16"/>
-      <c r="C204" s="16"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="16"/>
-      <c r="B205" s="16"/>
-      <c r="C205" s="16"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="16"/>
-      <c r="B206" s="16"/>
-      <c r="C206" s="16"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="16"/>
-      <c r="B207" s="16"/>
-      <c r="C207" s="16"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="16"/>
-      <c r="B208" s="16"/>
-      <c r="C208" s="16"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="16"/>
-      <c r="B209" s="16"/>
-      <c r="C209" s="16"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="16"/>
-      <c r="B210" s="16"/>
-      <c r="C210" s="16"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="16"/>
-      <c r="B211" s="16"/>
-      <c r="C211" s="16"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="16"/>
-      <c r="B212" s="16"/>
-      <c r="C212" s="16"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="16"/>
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="16"/>
-      <c r="B214" s="16"/>
-      <c r="C214" s="16"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="16"/>
-      <c r="B215" s="16"/>
-      <c r="C215" s="16"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="16"/>
-      <c r="B216" s="16"/>
-      <c r="C216" s="16"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="16"/>
-      <c r="B217" s="16"/>
-      <c r="C217" s="16"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="16"/>
-      <c r="B218" s="16"/>
-      <c r="C218" s="16"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="16"/>
-      <c r="B219" s="16"/>
-      <c r="C219" s="16"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="16"/>
-      <c r="B220" s="16"/>
-      <c r="C220" s="16"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="16"/>
-      <c r="B221" s="16"/>
-      <c r="C221" s="16"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="16"/>
-      <c r="B222" s="16"/>
-      <c r="C222" s="16"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="16"/>
-      <c r="B223" s="16"/>
-      <c r="C223" s="16"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="16"/>
-      <c r="B224" s="16"/>
-      <c r="C224" s="16"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="16"/>
-      <c r="B225" s="16"/>
-      <c r="C225" s="16"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="16"/>
-      <c r="B226" s="16"/>
-      <c r="C226" s="16"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="16"/>
-      <c r="B227" s="16"/>
-      <c r="C227" s="16"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="16"/>
-      <c r="B228" s="16"/>
-      <c r="C228" s="16"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="16"/>
-      <c r="B229" s="16"/>
-      <c r="C229" s="16"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="16"/>
-      <c r="B230" s="16"/>
-      <c r="C230" s="16"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="16"/>
-      <c r="B231" s="16"/>
-      <c r="C231" s="16"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="16"/>
-      <c r="B232" s="16"/>
-      <c r="C232" s="16"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="16"/>
-      <c r="B233" s="16"/>
-      <c r="C233" s="16"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="16"/>
-      <c r="B234" s="16"/>
-      <c r="C234" s="16"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="16"/>
-      <c r="B235" s="16"/>
-      <c r="C235" s="16"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="16"/>
-      <c r="B236" s="16"/>
-      <c r="C236" s="16"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="16"/>
-      <c r="B237" s="16"/>
-      <c r="C237" s="16"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="16"/>
-      <c r="B238" s="16"/>
-      <c r="C238" s="16"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="16"/>
-      <c r="B239" s="16"/>
-      <c r="C239" s="16"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="16"/>
-      <c r="B240" s="16"/>
-      <c r="C240" s="16"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="16"/>
-      <c r="B241" s="16"/>
-      <c r="C241" s="16"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="16"/>
-      <c r="B242" s="16"/>
-      <c r="C242" s="16"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="16"/>
-      <c r="B243" s="16"/>
-      <c r="C243" s="16"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="16"/>
-      <c r="B244" s="16"/>
-      <c r="C244" s="16"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="16"/>
-      <c r="B245" s="16"/>
-      <c r="C245" s="16"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="16"/>
-      <c r="B246" s="16"/>
-      <c r="C246" s="16"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="16"/>
-      <c r="B247" s="16"/>
-      <c r="C247" s="16"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="16"/>
-      <c r="B248" s="16"/>
-      <c r="C248" s="16"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="16"/>
-      <c r="B249" s="16"/>
-      <c r="C249" s="16"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="16"/>
-      <c r="B250" s="16"/>
-      <c r="C250" s="16"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="16"/>
-      <c r="B251" s="16"/>
-      <c r="C251" s="16"/>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="16"/>
-      <c r="B252" s="16"/>
-      <c r="C252" s="16"/>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="16"/>
-      <c r="B253" s="16"/>
-      <c r="C253" s="16"/>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="16"/>
-      <c r="B254" s="16"/>
-      <c r="C254" s="16"/>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="16"/>
-      <c r="B255" s="16"/>
-      <c r="C255" s="16"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="16"/>
-      <c r="B256" s="16"/>
-      <c r="C256" s="16"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="16"/>
-      <c r="B257" s="16"/>
-      <c r="C257" s="16"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="16"/>
-      <c r="B258" s="16"/>
-      <c r="C258" s="16"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="16"/>
-      <c r="B259" s="16"/>
-      <c r="C259" s="16"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="16"/>
-      <c r="B260" s="16"/>
-      <c r="C260" s="16"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="16"/>
-      <c r="B261" s="16"/>
-      <c r="C261" s="16"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="16"/>
-      <c r="B262" s="16"/>
-      <c r="C262" s="16"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="16"/>
-      <c r="B263" s="16"/>
-      <c r="C263" s="16"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="16"/>
-      <c r="B264" s="16"/>
-      <c r="C264" s="16"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="16"/>
-      <c r="B265" s="16"/>
-      <c r="C265" s="16"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="16"/>
-      <c r="B266" s="16"/>
-      <c r="C266" s="16"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="16"/>
-      <c r="B267" s="16"/>
-      <c r="C267" s="16"/>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="16"/>
-      <c r="B268" s="16"/>
-      <c r="C268" s="16"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="16"/>
-      <c r="B269" s="16"/>
-      <c r="C269" s="16"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="16"/>
-      <c r="B270" s="16"/>
-      <c r="C270" s="16"/>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="16"/>
-      <c r="B271" s="16"/>
-      <c r="C271" s="16"/>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="16"/>
-      <c r="B272" s="16"/>
-      <c r="C272" s="16"/>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="16"/>
-      <c r="B273" s="16"/>
-      <c r="C273" s="16"/>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="16"/>
-      <c r="B274" s="16"/>
-      <c r="C274" s="16"/>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="16"/>
-      <c r="B275" s="16"/>
-      <c r="C275" s="16"/>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="16"/>
-      <c r="B276" s="16"/>
-      <c r="C276" s="16"/>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="16"/>
-      <c r="B277" s="16"/>
-      <c r="C277" s="16"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="16"/>
-      <c r="B278" s="16"/>
-      <c r="C278" s="16"/>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="16"/>
-      <c r="B279" s="16"/>
-      <c r="C279" s="16"/>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="16"/>
-      <c r="B280" s="16"/>
-      <c r="C280" s="16"/>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="16"/>
-      <c r="B281" s="16"/>
-      <c r="C281" s="16"/>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="16"/>
-      <c r="B282" s="16"/>
-      <c r="C282" s="16"/>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="16"/>
-      <c r="B283" s="16"/>
-      <c r="C283" s="16"/>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="16"/>
-      <c r="B284" s="16"/>
-      <c r="C284" s="16"/>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="16"/>
-      <c r="B285" s="16"/>
-      <c r="C285" s="16"/>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="16"/>
-      <c r="B286" s="16"/>
-      <c r="C286" s="16"/>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="16"/>
-      <c r="B287" s="16"/>
-      <c r="C287" s="16"/>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="16"/>
-      <c r="B288" s="16"/>
-      <c r="C288" s="16"/>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="16"/>
-      <c r="B289" s="16"/>
-      <c r="C289" s="16"/>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="16"/>
-      <c r="B290" s="16"/>
-      <c r="C290" s="16"/>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="16"/>
-      <c r="B291" s="16"/>
-      <c r="C291" s="16"/>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="16"/>
-      <c r="B292" s="16"/>
-      <c r="C292" s="16"/>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="16"/>
-      <c r="B293" s="16"/>
-      <c r="C293" s="16"/>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="16"/>
-      <c r="B294" s="16"/>
-      <c r="C294" s="16"/>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="16"/>
-      <c r="B295" s="16"/>
-      <c r="C295" s="16"/>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="16"/>
-      <c r="B296" s="16"/>
-      <c r="C296" s="16"/>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="16"/>
-      <c r="B297" s="16"/>
-      <c r="C297" s="16"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="16"/>
-      <c r="B298" s="16"/>
-      <c r="C298" s="16"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="16"/>
-      <c r="B299" s="16"/>
-      <c r="C299" s="16"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="16"/>
-      <c r="B300" s="16"/>
-      <c r="C300" s="16"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="16"/>
-      <c r="B301" s="16"/>
-      <c r="C301" s="16"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="16"/>
-      <c r="B302" s="16"/>
-      <c r="C302" s="16"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="16"/>
-      <c r="B303" s="16"/>
-      <c r="C303" s="16"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="16"/>
-      <c r="B304" s="16"/>
-      <c r="C304" s="16"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="16"/>
-      <c r="B305" s="16"/>
-      <c r="C305" s="16"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="16"/>
-      <c r="B306" s="16"/>
-      <c r="C306" s="16"/>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="16"/>
-      <c r="B307" s="16"/>
-      <c r="C307" s="16"/>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="16"/>
-      <c r="B308" s="16"/>
-      <c r="C308" s="16"/>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="16"/>
-      <c r="B309" s="16"/>
-      <c r="C309" s="16"/>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="16"/>
-      <c r="B310" s="16"/>
-      <c r="C310" s="16"/>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="16"/>
-      <c r="B311" s="16"/>
-      <c r="C311" s="16"/>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="16"/>
-      <c r="B312" s="16"/>
-      <c r="C312" s="16"/>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="16"/>
-      <c r="B313" s="16"/>
-      <c r="C313" s="16"/>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="16"/>
-      <c r="B314" s="16"/>
-      <c r="C314" s="16"/>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="16"/>
-      <c r="B315" s="16"/>
-      <c r="C315" s="16"/>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="16"/>
-      <c r="B316" s="16"/>
-      <c r="C316" s="16"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="16"/>
-      <c r="B317" s="16"/>
-      <c r="C317" s="16"/>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="16"/>
-      <c r="B318" s="16"/>
-      <c r="C318" s="16"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="16"/>
-      <c r="B319" s="16"/>
-      <c r="C319" s="16"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="16"/>
-      <c r="B320" s="16"/>
-      <c r="C320" s="16"/>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" s="16"/>
-      <c r="B321" s="16"/>
-      <c r="C321" s="16"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" s="16"/>
-      <c r="B322" s="16"/>
-      <c r="C322" s="16"/>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" s="16"/>
-      <c r="B323" s="16"/>
-      <c r="C323" s="16"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" s="16"/>
-      <c r="B324" s="16"/>
-      <c r="C324" s="16"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" s="16"/>
-      <c r="B325" s="16"/>
-      <c r="C325" s="16"/>
-    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+    </row>
+    <row r="33" s="14" customFormat="1"/>
+    <row r="34" s="14" customFormat="1"/>
+    <row r="35" s="14" customFormat="1"/>
+    <row r="36" s="14" customFormat="1"/>
+    <row r="37" s="14" customFormat="1"/>
+    <row r="38" s="14" customFormat="1"/>
+    <row r="39" s="14" customFormat="1"/>
+    <row r="40" s="14" customFormat="1"/>
+    <row r="41" s="14" customFormat="1"/>
+    <row r="42" s="14" customFormat="1"/>
+    <row r="43" s="14" customFormat="1"/>
+    <row r="44" s="14" customFormat="1"/>
+    <row r="45" s="14" customFormat="1"/>
+    <row r="46" s="14" customFormat="1"/>
+    <row r="47" s="14" customFormat="1"/>
+    <row r="48" s="14" customFormat="1"/>
+    <row r="49" s="14" customFormat="1"/>
+    <row r="50" s="14" customFormat="1"/>
+    <row r="51" s="14" customFormat="1"/>
+    <row r="52" s="14" customFormat="1"/>
+    <row r="53" s="14" customFormat="1"/>
+    <row r="54" s="14" customFormat="1"/>
+    <row r="55" s="14" customFormat="1"/>
+    <row r="56" s="14" customFormat="1"/>
+    <row r="57" s="14" customFormat="1"/>
+    <row r="58" s="14" customFormat="1"/>
+    <row r="59" s="14" customFormat="1"/>
+    <row r="60" s="14" customFormat="1"/>
+    <row r="61" s="14" customFormat="1"/>
+    <row r="62" s="14" customFormat="1"/>
+    <row r="63" s="14" customFormat="1"/>
+    <row r="64" s="14" customFormat="1"/>
+    <row r="65" s="14" customFormat="1"/>
+    <row r="66" s="14" customFormat="1"/>
+    <row r="67" s="14" customFormat="1"/>
+    <row r="68" s="14" customFormat="1"/>
+    <row r="69" s="14" customFormat="1"/>
+    <row r="70" s="14" customFormat="1"/>
+    <row r="71" s="14" customFormat="1"/>
+    <row r="72" s="14" customFormat="1"/>
+    <row r="73" s="14" customFormat="1"/>
+    <row r="74" s="14" customFormat="1"/>
+    <row r="75" s="14" customFormat="1"/>
+    <row r="76" s="14" customFormat="1"/>
+    <row r="77" s="14" customFormat="1"/>
+    <row r="78" s="14" customFormat="1"/>
+    <row r="79" s="14" customFormat="1"/>
+    <row r="80" s="14" customFormat="1"/>
+    <row r="81" s="14" customFormat="1"/>
+    <row r="82" s="14" customFormat="1"/>
+    <row r="83" s="14" customFormat="1"/>
+    <row r="84" s="14" customFormat="1"/>
+    <row r="85" s="14" customFormat="1"/>
+    <row r="86" s="14" customFormat="1"/>
+    <row r="87" s="14" customFormat="1"/>
+    <row r="88" s="14" customFormat="1"/>
+    <row r="89" s="14" customFormat="1"/>
+    <row r="90" s="14" customFormat="1"/>
+    <row r="91" s="14" customFormat="1"/>
+    <row r="92" s="14" customFormat="1"/>
+    <row r="93" s="14" customFormat="1"/>
+    <row r="94" s="14" customFormat="1"/>
+    <row r="95" s="14" customFormat="1"/>
+    <row r="96" s="14" customFormat="1"/>
+    <row r="97" s="14" customFormat="1"/>
+    <row r="98" s="14" customFormat="1"/>
+    <row r="99" s="14" customFormat="1"/>
+    <row r="100" s="14" customFormat="1"/>
+    <row r="101" s="14" customFormat="1"/>
+    <row r="102" s="14" customFormat="1"/>
+    <row r="103" s="14" customFormat="1"/>
+    <row r="104" s="14" customFormat="1"/>
+    <row r="105" s="14" customFormat="1"/>
+    <row r="106" s="14" customFormat="1"/>
+    <row r="107" s="14" customFormat="1"/>
+    <row r="108" s="14" customFormat="1"/>
+    <row r="109" s="14" customFormat="1"/>
+    <row r="110" s="14" customFormat="1"/>
+    <row r="111" s="14" customFormat="1"/>
+    <row r="112" s="14" customFormat="1"/>
+    <row r="113" s="14" customFormat="1"/>
+    <row r="114" s="14" customFormat="1"/>
+    <row r="115" s="14" customFormat="1"/>
+    <row r="116" s="14" customFormat="1"/>
+    <row r="117" s="14" customFormat="1"/>
+    <row r="118" s="14" customFormat="1"/>
+    <row r="119" s="14" customFormat="1"/>
+    <row r="120" s="14" customFormat="1"/>
+    <row r="121" s="14" customFormat="1"/>
+    <row r="122" s="14" customFormat="1"/>
+    <row r="123" s="14" customFormat="1"/>
+    <row r="124" s="14" customFormat="1"/>
+    <row r="125" s="14" customFormat="1"/>
+    <row r="126" s="14" customFormat="1"/>
+    <row r="127" s="14" customFormat="1"/>
+    <row r="128" s="14" customFormat="1"/>
+    <row r="129" s="14" customFormat="1"/>
+    <row r="130" s="14" customFormat="1"/>
+    <row r="131" s="14" customFormat="1"/>
+    <row r="132" s="14" customFormat="1"/>
+    <row r="133" s="14" customFormat="1"/>
+    <row r="134" s="14" customFormat="1"/>
+    <row r="135" s="14" customFormat="1"/>
+    <row r="136" s="14" customFormat="1"/>
+    <row r="137" s="14" customFormat="1"/>
+    <row r="138" s="14" customFormat="1"/>
+    <row r="139" s="14" customFormat="1"/>
+    <row r="140" s="14" customFormat="1"/>
+    <row r="141" s="14" customFormat="1"/>
+    <row r="142" s="14" customFormat="1"/>
+    <row r="143" s="14" customFormat="1"/>
+    <row r="144" s="14" customFormat="1"/>
+    <row r="145" s="14" customFormat="1"/>
+    <row r="146" s="14" customFormat="1"/>
+    <row r="147" s="14" customFormat="1"/>
+    <row r="148" s="14" customFormat="1"/>
+    <row r="149" s="14" customFormat="1"/>
+    <row r="150" s="14" customFormat="1"/>
+    <row r="151" s="14" customFormat="1"/>
+    <row r="152" s="14" customFormat="1"/>
+    <row r="153" s="14" customFormat="1"/>
+    <row r="154" s="14" customFormat="1"/>
+    <row r="155" s="14" customFormat="1"/>
+    <row r="156" s="14" customFormat="1"/>
+    <row r="157" s="14" customFormat="1"/>
+    <row r="158" s="14" customFormat="1"/>
+    <row r="159" s="14" customFormat="1"/>
+    <row r="160" s="14" customFormat="1"/>
+    <row r="161" s="14" customFormat="1"/>
+    <row r="162" s="14" customFormat="1"/>
+    <row r="163" s="14" customFormat="1"/>
+    <row r="164" s="14" customFormat="1"/>
+    <row r="165" s="14" customFormat="1"/>
+    <row r="166" s="14" customFormat="1"/>
+    <row r="167" s="14" customFormat="1"/>
+    <row r="168" s="14" customFormat="1"/>
+    <row r="169" s="14" customFormat="1"/>
+    <row r="170" s="14" customFormat="1"/>
+    <row r="171" s="14" customFormat="1"/>
+    <row r="172" s="14" customFormat="1"/>
+    <row r="173" s="14" customFormat="1"/>
+    <row r="174" s="14" customFormat="1"/>
+    <row r="175" s="14" customFormat="1"/>
+    <row r="176" s="14" customFormat="1"/>
+    <row r="177" s="14" customFormat="1"/>
+    <row r="178" s="14" customFormat="1"/>
+    <row r="179" s="14" customFormat="1"/>
+    <row r="180" s="14" customFormat="1"/>
+    <row r="181" s="14" customFormat="1"/>
+    <row r="182" s="14" customFormat="1"/>
+    <row r="183" s="14" customFormat="1"/>
+    <row r="184" s="14" customFormat="1"/>
+    <row r="185" s="14" customFormat="1"/>
+    <row r="186" s="14" customFormat="1"/>
+    <row r="187" s="14" customFormat="1"/>
+    <row r="188" s="14" customFormat="1"/>
+    <row r="189" s="14" customFormat="1"/>
+    <row r="190" s="14" customFormat="1"/>
+    <row r="191" s="14" customFormat="1"/>
+    <row r="192" s="14" customFormat="1"/>
+    <row r="193" s="14" customFormat="1"/>
+    <row r="194" s="14" customFormat="1"/>
+    <row r="195" s="14" customFormat="1"/>
+    <row r="196" s="14" customFormat="1"/>
+    <row r="197" s="14" customFormat="1"/>
+    <row r="198" s="14" customFormat="1"/>
+    <row r="199" s="14" customFormat="1"/>
+    <row r="200" s="14" customFormat="1"/>
+    <row r="201" s="14" customFormat="1"/>
+    <row r="202" s="14" customFormat="1"/>
+    <row r="203" s="14" customFormat="1"/>
+    <row r="204" s="14" customFormat="1"/>
+    <row r="205" s="14" customFormat="1"/>
+    <row r="206" s="14" customFormat="1"/>
+    <row r="207" s="14" customFormat="1"/>
+    <row r="208" s="14" customFormat="1"/>
+    <row r="209" s="14" customFormat="1"/>
+    <row r="210" s="14" customFormat="1"/>
+    <row r="211" s="14" customFormat="1"/>
+    <row r="212" s="14" customFormat="1"/>
+    <row r="213" s="14" customFormat="1"/>
+    <row r="214" s="14" customFormat="1"/>
+    <row r="215" s="14" customFormat="1"/>
+    <row r="216" s="14" customFormat="1"/>
+    <row r="217" s="14" customFormat="1"/>
+    <row r="218" s="14" customFormat="1"/>
+    <row r="219" s="14" customFormat="1"/>
+    <row r="220" s="14" customFormat="1"/>
+    <row r="221" s="14" customFormat="1"/>
+    <row r="222" s="14" customFormat="1"/>
+    <row r="223" s="14" customFormat="1"/>
+    <row r="224" s="14" customFormat="1"/>
+    <row r="225" s="14" customFormat="1"/>
+    <row r="226" s="14" customFormat="1"/>
+    <row r="227" s="14" customFormat="1"/>
+    <row r="228" s="14" customFormat="1"/>
+    <row r="229" s="14" customFormat="1"/>
+    <row r="230" s="14" customFormat="1"/>
+    <row r="231" s="14" customFormat="1"/>
+    <row r="232" s="14" customFormat="1"/>
+    <row r="233" s="14" customFormat="1"/>
+    <row r="234" s="14" customFormat="1"/>
+    <row r="235" s="14" customFormat="1"/>
+    <row r="236" s="14" customFormat="1"/>
+    <row r="237" s="14" customFormat="1"/>
+    <row r="238" s="14" customFormat="1"/>
+    <row r="239" s="14" customFormat="1"/>
+    <row r="240" s="14" customFormat="1"/>
+    <row r="241" s="14" customFormat="1"/>
+    <row r="242" s="14" customFormat="1"/>
+    <row r="243" s="14" customFormat="1"/>
+    <row r="244" s="14" customFormat="1"/>
+    <row r="245" s="14" customFormat="1"/>
+    <row r="246" s="14" customFormat="1"/>
+    <row r="247" s="14" customFormat="1"/>
+    <row r="248" s="14" customFormat="1"/>
+    <row r="249" s="14" customFormat="1"/>
+    <row r="250" s="14" customFormat="1"/>
+    <row r="251" s="14" customFormat="1"/>
+    <row r="252" s="14" customFormat="1"/>
+    <row r="253" s="14" customFormat="1"/>
+    <row r="254" s="14" customFormat="1"/>
+    <row r="255" s="14" customFormat="1"/>
+    <row r="256" s="14" customFormat="1"/>
+    <row r="257" s="14" customFormat="1"/>
+    <row r="258" s="14" customFormat="1"/>
+    <row r="259" s="14" customFormat="1"/>
+    <row r="260" s="14" customFormat="1"/>
+    <row r="261" s="14" customFormat="1"/>
+    <row r="262" s="14" customFormat="1"/>
+    <row r="263" s="14" customFormat="1"/>
+    <row r="264" s="14" customFormat="1"/>
+    <row r="265" s="14" customFormat="1"/>
+    <row r="266" s="14" customFormat="1"/>
+    <row r="267" s="14" customFormat="1"/>
+    <row r="268" s="14" customFormat="1"/>
+    <row r="269" s="14" customFormat="1"/>
+    <row r="270" s="14" customFormat="1"/>
+    <row r="271" s="14" customFormat="1"/>
+    <row r="272" s="14" customFormat="1"/>
+    <row r="273" s="14" customFormat="1"/>
+    <row r="274" s="14" customFormat="1"/>
+    <row r="275" s="14" customFormat="1"/>
+    <row r="276" s="14" customFormat="1"/>
+    <row r="277" s="14" customFormat="1"/>
+    <row r="278" s="14" customFormat="1"/>
+    <row r="279" s="14" customFormat="1"/>
+    <row r="280" s="14" customFormat="1"/>
+    <row r="281" s="14" customFormat="1"/>
+    <row r="282" s="14" customFormat="1"/>
+    <row r="283" s="14" customFormat="1"/>
+    <row r="284" s="14" customFormat="1"/>
+    <row r="285" s="14" customFormat="1"/>
+    <row r="286" s="14" customFormat="1"/>
+    <row r="287" s="14" customFormat="1"/>
+    <row r="288" s="14" customFormat="1"/>
+    <row r="289" s="14" customFormat="1"/>
+    <row r="290" s="14" customFormat="1"/>
+    <row r="291" s="14" customFormat="1"/>
+    <row r="292" s="14" customFormat="1"/>
+    <row r="293" s="14" customFormat="1"/>
+    <row r="294" s="14" customFormat="1"/>
+    <row r="295" s="14" customFormat="1"/>
+    <row r="296" s="14" customFormat="1"/>
+    <row r="297" s="14" customFormat="1"/>
+    <row r="298" s="14" customFormat="1"/>
+    <row r="299" s="14" customFormat="1"/>
+    <row r="300" s="14" customFormat="1"/>
+    <row r="301" s="14" customFormat="1"/>
+    <row r="302" s="14" customFormat="1"/>
+    <row r="303" s="14" customFormat="1"/>
+    <row r="304" s="14" customFormat="1"/>
+    <row r="305" s="14" customFormat="1"/>
+    <row r="306" s="14" customFormat="1"/>
+    <row r="307" s="14" customFormat="1"/>
+    <row r="308" s="14" customFormat="1"/>
+    <row r="309" s="14" customFormat="1"/>
+    <row r="310" s="14" customFormat="1"/>
+    <row r="311" s="14" customFormat="1"/>
+    <row r="312" s="14" customFormat="1"/>
+    <row r="313" s="14" customFormat="1"/>
+    <row r="314" s="14" customFormat="1"/>
+    <row r="315" s="14" customFormat="1"/>
+    <row r="316" s="14" customFormat="1"/>
+    <row r="317" s="14" customFormat="1"/>
+    <row r="318" s="14" customFormat="1"/>
+    <row r="319" s="14" customFormat="1"/>
+    <row r="320" s="14" customFormat="1"/>
+    <row r="321" s="14" customFormat="1"/>
+    <row r="322" s="14" customFormat="1"/>
+    <row r="323" s="14" customFormat="1"/>
+    <row r="324" s="14" customFormat="1"/>
+    <row r="325" s="14" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -4887,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,800 +3717,800 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="19" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="13" style="19" customWidth="1"/>
-    <col min="8" max="8" width="120.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="17" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13" style="17" customWidth="1"/>
+    <col min="8" max="8" width="120.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>40606</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="17">
         <v>4012</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="17">
         <v>1548894</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>386.06530408773676</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <v>13977</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>40611</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>4012</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>105178756662</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>26216041.042372882</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>20000</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>1172998266</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>40616</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>4012</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>59090</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>14.728315054835493</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>0</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>4374</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>40621</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>4012</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>4618521599</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>1151176.8691425724</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>492230258</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>40626</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>4012</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>10098</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>2.5169491525423728</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>524</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>40631</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>4012</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>771486994</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>192294.86390827518</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>0</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>43561170</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>40636</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>4012</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>151687</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>37.808325024925225</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>0</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>1184</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>40641</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>4012</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>8837143793</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>2202677.9145064806</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>88381170</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>40646</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>4012</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>239889</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>59.792871385842474</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>2313</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>40651</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>4012</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>27500107835</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>6854463.568045862</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>283813320</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>40656</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>4012</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>191573</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>47.75</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>2725</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>40661</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>4012</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>13415311584</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>3343796.5064805583</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>289379470</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>40666</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>4012</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>175302</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>43.694416749750751</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>2662</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>40671</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>4012</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>12810148563</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>3192958.2659521434</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>208116140</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>40676</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>4012</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>154386</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>38.481056829511466</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>0</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>1436</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>40681</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>4012</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>10005977119</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>2494012.2430209373</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>95501625</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>40686</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>4012</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>38333</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>9.5545862412761711</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <v>3504</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>40691</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>4012</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>2577403961</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>642423.71909272182</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>0</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>204752561</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>40696</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>4012</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <v>177244</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <v>44.178464606181457</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>0</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>2266</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>40701</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="17">
         <v>4012</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>7498356268</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>1868982.1206380858</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>0</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="17">
         <v>122168052</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>40706</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="17">
         <v>4012</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <v>9131</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>2.2759222333000997</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>471</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>40711</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="17">
         <v>4012</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="17">
         <v>460374493</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <v>114749.37512462612</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="17">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="17">
         <v>30238909</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>40716</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="17">
         <v>4012</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>264801</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>66.002243270189425</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="17">
         <v>0</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <v>2064</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>40721</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="17">
         <v>4012</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="17">
         <v>12468937165</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>3107910.5595712862</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <v>0</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <v>138220013</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>40726</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="17">
         <v>4012</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="17">
         <v>63508</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="18">
         <v>15.82951146560319</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="17">
         <v>0</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="17">
         <v>749</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>40731</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="17">
         <v>4012</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="17">
         <v>3498320716</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>871964.28614157531</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="17">
         <v>0</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="17">
         <v>76447609</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>40736</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="17">
         <v>4012</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>13852</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>3.4526420737786641</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="17">
         <v>0</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="17">
         <v>235</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>40741</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="17">
         <v>4012</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="17">
         <v>716666572</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>178630.75074775674</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="17">
         <v>0</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="17">
         <v>18250652</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+    <row r="35" spans="3:7">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5697,24 +4519,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>116</v>
       </c>
@@ -5722,7 +4544,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>118</v>
       </c>
@@ -5730,7 +4552,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -5738,7 +4560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -5746,7 +4568,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -5754,7 +4576,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
@@ -5762,7 +4584,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -5770,7 +4592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -5778,7 +4600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -5786,7 +4608,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>134</v>
       </c>
@@ -5794,7 +4616,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -5802,7 +4624,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -5810,7 +4632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>139</v>
       </c>
@@ -5818,7 +4640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>141</v>
       </c>
